--- a/Deliverables/12S/WADE003-arcticpred-12SP1-taxa-output_unresolved.xlsx
+++ b/Deliverables/12S/WADE003-arcticpred-12SP1-taxa-output_unresolved.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bd2331949789710/文档/WADE LAB/Arctic-predator-diet-microbiome/Deliverables/12S/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MBall\OneDrive\Documents\UW-DOCS\WADE lab\Arctic-predator-diet-microbiome\Deliverables\12S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C90B1C4A-C584-4C48-BA42-7B2FF5DA1812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F72B78-5113-47FB-915A-345CC5B4B5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D5BE2BDA-A88E-4643-9D78-B50402266002}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{D5BE2BDA-A88E-4643-9D78-B50402266002}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -722,7 +722,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,6 +737,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -754,7 +760,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -765,6 +771,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1103,16 +1112,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0E6851-D96E-47FD-8F8E-1962ADAEEF69}">
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="9" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.86328125" customWidth="1"/>
+    <col min="10" max="10" width="255.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1144,143 +1154,143 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1304,7 +1314,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1328,7 +1338,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1354,7 +1364,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1384,7 +1394,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1410,7 +1420,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1440,7 +1450,7 @@
       </c>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1464,7 +1474,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1488,7 +1498,7 @@
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1514,7 +1524,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -1540,7 +1550,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -1566,7 +1576,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -1595,7 +1605,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -1624,7 +1634,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -1648,7 +1658,7 @@
       </c>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -1674,7 +1684,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -1701,7 +1711,7 @@
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -1728,7 +1738,7 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -1752,7 +1762,7 @@
       </c>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -1782,7 +1792,7 @@
       </c>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -1806,7 +1816,7 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -1832,7 +1842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -1858,7 +1868,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -1884,7 +1894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -1907,7 +1917,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -1934,7 +1944,7 @@
       </c>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -1958,7 +1968,7 @@
       </c>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -1984,7 +1994,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -2010,7 +2020,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -2036,7 +2046,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>98</v>
       </c>
@@ -2057,7 +2067,7 @@
       </c>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -2081,7 +2091,7 @@
       </c>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -2110,7 +2120,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>107</v>
       </c>
@@ -2136,7 +2146,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>110</v>
       </c>
@@ -2162,7 +2172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>111</v>
       </c>
@@ -2188,7 +2198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>112</v>
       </c>
@@ -2214,7 +2224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>113</v>
       </c>
@@ -2238,7 +2248,7 @@
       </c>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>114</v>
       </c>
@@ -2262,7 +2272,7 @@
       </c>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -2288,7 +2298,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>117</v>
       </c>
@@ -2314,7 +2324,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -2340,7 +2350,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>121</v>
       </c>
@@ -2366,7 +2376,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>122</v>
       </c>
@@ -2392,7 +2402,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>123</v>
       </c>
@@ -2418,7 +2428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>124</v>
       </c>
@@ -2447,7 +2457,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>125</v>
       </c>
@@ -2473,7 +2483,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>126</v>
       </c>
@@ -2497,7 +2507,7 @@
       </c>
       <c r="J54" s="3"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -2523,7 +2533,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -2550,7 +2560,7 @@
       </c>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -2579,7 +2589,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>137</v>
       </c>
@@ -2608,7 +2618,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>138</v>
       </c>
@@ -2634,7 +2644,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>139</v>
       </c>
@@ -2658,7 +2668,7 @@
       </c>
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>141</v>
       </c>
@@ -2690,7 +2700,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>143</v>
       </c>
@@ -2719,7 +2729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>144</v>
       </c>
@@ -2743,7 +2753,7 @@
       </c>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>145</v>
       </c>
@@ -2767,7 +2777,7 @@
       </c>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>148</v>
       </c>
@@ -2778,7 +2788,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>151</v>
       </c>
@@ -2802,7 +2812,7 @@
       </c>
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>153</v>
       </c>
@@ -2826,7 +2836,7 @@
       </c>
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>154</v>
       </c>
@@ -2853,7 +2863,7 @@
       </c>
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>156</v>
       </c>
@@ -2864,7 +2874,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>159</v>
       </c>
@@ -2888,7 +2898,7 @@
       </c>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>161</v>
       </c>
@@ -2912,7 +2922,7 @@
       </c>
       <c r="J71" s="3"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>162</v>
       </c>
@@ -2932,7 +2942,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>163</v>
       </c>
@@ -2956,7 +2966,7 @@
       </c>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>164</v>
       </c>
@@ -2986,7 +2996,7 @@
       </c>
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>167</v>
       </c>
@@ -3015,7 +3025,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>171</v>
       </c>
@@ -3039,7 +3049,7 @@
       </c>
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>172</v>
       </c>
@@ -3071,7 +3081,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>175</v>
       </c>
@@ -3101,7 +3111,7 @@
       </c>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>177</v>
       </c>
@@ -3133,7 +3143,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>179</v>
       </c>
@@ -3165,7 +3175,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>186</v>
       </c>
@@ -3191,7 +3201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>187</v>
       </c>
@@ -3223,7 +3233,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>188</v>
       </c>
@@ -3252,7 +3262,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>194</v>
       </c>
@@ -3284,7 +3294,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>201</v>
       </c>
@@ -3310,16 +3320,16 @@
         <v>203</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="I86" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="J86" s="3"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J86" s="7"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>206</v>
       </c>
@@ -3343,7 +3353,7 @@
       </c>
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>207</v>
       </c>
@@ -3370,7 +3380,7 @@
       </c>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>211</v>
       </c>
@@ -3396,15 +3406,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
     </row>

--- a/Deliverables/12S/WADE003-arcticpred-12SP1-taxa-output_unresolved.xlsx
+++ b/Deliverables/12S/WADE003-arcticpred-12SP1-taxa-output_unresolved.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MBall\OneDrive\Documents\UW-DOCS\WADE lab\Arctic-predator-diet-microbiome\Deliverables\12S\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bd2331949789710/文档/WADE LAB/Arctic-predator-diet-microbiome/Deliverables/12S/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F72B78-5113-47FB-915A-345CC5B4B5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{A2F72B78-5113-47FB-915A-345CC5B4B5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B471085C-02F2-4CBA-9179-7920FB7B6854}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{D5BE2BDA-A88E-4643-9D78-B50402266002}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D5BE2BDA-A88E-4643-9D78-B50402266002}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -769,11 +769,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1112,17 +1112,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0E6851-D96E-47FD-8F8E-1962ADAEEF69}">
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="61.86328125" customWidth="1"/>
-    <col min="10" max="10" width="255.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.85546875" customWidth="1"/>
+    <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1154,2233 +1154,2233 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="13" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="B16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="17" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="B17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="18" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="19" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="B19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="20" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="B20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="21" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="B21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="B22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="23" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="B23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="B24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="B25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="B26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="B27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="B28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    <row r="29" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="B29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    <row r="30" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="B30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="31" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="B31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="32" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="B32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="B33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="B34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+    <row r="35" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="B35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+    <row r="36" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="B36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+    <row r="37" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="B37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="B38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="B39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+    <row r="40" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="B40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+    <row r="41" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="B41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+    <row r="42" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="B42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+    <row r="43" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="B43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+    <row r="44" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="B44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="B45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="B46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+    <row r="47" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="B47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+    <row r="48" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="B48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I48" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+    <row r="49" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="B49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+    <row r="50" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="B50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I50" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+    <row r="51" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="B51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I51" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+    <row r="52" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="B52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+    <row r="53" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="B53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+    <row r="54" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="B54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I54" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J54" s="3"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="B55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I55" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="J55" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+    <row r="56" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="B56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="I56" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="J56" s="3"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="B57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="I57" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="J57" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
+    <row r="58" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="B58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+    <row r="59" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B59" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="B59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="I59" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J59" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+    <row r="60" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B60" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="B60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="I60" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="J60" s="3"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B61" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="B61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="I61" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J61" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+    <row r="62" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B62" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="B62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="I62" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="J62" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+    <row r="63" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B63" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="B63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="I63" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J63" s="3"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B64" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="B64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="I64" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J64" s="3"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="I65" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="J65" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
+    <row r="66" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B66" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="B66" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="I66" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="J66" s="3"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="B67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="I67" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="J67" s="3"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+      <c r="J67" s="6"/>
+    </row>
+    <row r="68" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B68" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="B68" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="I68" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="J68" s="3"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+      <c r="J68" s="6"/>
+    </row>
+    <row r="69" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="I69" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="J69" s="4" t="s">
+      <c r="J69" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
+    <row r="70" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B70" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="B70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="I70" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="J70" s="3"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
+      <c r="J70" s="6"/>
+    </row>
+    <row r="71" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B71" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="B71" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I71" s="4" t="s">
+      <c r="I71" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J71" s="3"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B72" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="B72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
+    <row r="73" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B73" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="B73" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="I73" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J73" s="3"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
+      <c r="J73" s="6"/>
+    </row>
+    <row r="74" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B74" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="B74" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I74" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="J74" s="3"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
+      <c r="J74" s="6"/>
+    </row>
+    <row r="75" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B75" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="B75" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="I75" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="J75" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
+    <row r="76" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B76" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="B76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="I76" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J76" s="3"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
+      <c r="J76" s="6"/>
+    </row>
+    <row r="77" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B77" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="B77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="I77" s="5" t="s">
+      <c r="I77" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="J77" s="5" t="s">
+      <c r="J77" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
+    <row r="78" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B78" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="B78" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="I78" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="J78" s="3"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
+      <c r="J78" s="6"/>
+    </row>
+    <row r="79" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B79" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="B79" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="I79" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J79" s="4" t="s">
+      <c r="J79" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
+    <row r="80" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B80" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="B80" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="I80" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="J80" s="4" t="s">
+      <c r="J80" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
+    <row r="81" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B81" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="B81" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="I81" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="J81" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
+    <row r="82" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B82" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="B82" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="I82" s="4" t="s">
+      <c r="I82" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="J82" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
+    <row r="83" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B83" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="B83" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="I83" s="3" t="s">
+      <c r="I83" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="J83" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
+    <row r="84" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B84" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="B84" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="I84" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="J84" s="4" t="s">
+      <c r="J84" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
+    <row r="85" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B85" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="B85" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="I85" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="J85" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="6" t="s">
+    <row r="86" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="I86" s="7" t="s">
+      <c r="I86" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="J86" s="7"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
+      <c r="J86" s="6"/>
+    </row>
+    <row r="87" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B87" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="B87" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I87" s="3" t="s">
+      <c r="I87" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J87" s="3"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
+      <c r="J87" s="6"/>
+    </row>
+    <row r="88" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B88" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="B88" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="I88" s="4" t="s">
+      <c r="I88" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="J88" s="3"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J88" s="6"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>211</v>
       </c>
@@ -3399,22 +3399,22 @@
       <c r="F89" t="s">
         <v>36</v>
       </c>
-      <c r="I89" s="5" t="s">
+      <c r="I89" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="J89" s="5" t="s">
+      <c r="J89" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
     </row>
